--- a/models/dft/hecs/parameters.xlsx
+++ b/models/dft/hecs/parameters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>name</t>
   </si>
@@ -43,13 +43,19 @@
     <t>failed</t>
   </si>
   <si>
-    <t>A_11</t>
-  </si>
-  <si>
-    <t>A_12</t>
-  </si>
-  <si>
-    <t>A_1S</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>BUS</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>HW</t>
   </si>
 </sst>
 </file>
@@ -371,7 +377,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -404,7 +410,8 @@
         <v>1E-4</v>
       </c>
       <c r="D2" s="1">
-        <v>3.0000000000000001E-5</v>
+        <f>C2/5</f>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -418,10 +425,11 @@
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>1E-4</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="D3" s="1">
-        <v>3.0000000000000001E-5</v>
+        <f>C3/5</f>
+        <v>1.2E-5</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -435,22 +443,51 @@
         <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>1E-4</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="D4" s="1">
-        <v>3.0000000000000001E-5</v>
+        <f>C4/5</f>
+        <v>1.9999999999999999E-7</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="D5" s="1">
+        <f>C5/5</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D6" s="1">
+        <f>C6/5</f>
+        <v>1.2E-5</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" s="1"/>
@@ -535,10 +572,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A26" sqref="A1:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,17 +587,127 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25000</v>
       </c>
     </row>
   </sheetData>

--- a/models/dft/hecs/parameters.xlsx
+++ b/models/dft/hecs/parameters.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
-    <sheet name="Properties" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -38,9 +37,6 @@
   </si>
   <si>
     <t>inverse</t>
-  </si>
-  <si>
-    <t>failed</t>
   </si>
   <si>
     <t>A</t>
@@ -377,7 +373,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -401,7 +397,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -419,7 +415,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -437,7 +433,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -455,7 +451,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -473,7 +469,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -564,151 +560,6 @@
     <row r="25" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A1:A26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25000</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
